--- a/读书名录.xlsx
+++ b/读书名录.xlsx
@@ -308,85 +308,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据挖掘算法基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据挖掘算法笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规算法，推荐， 协同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见大数据算法的过程解释和MR或Spark的具体类实现，对初级阶段大数据分析非常有好处，可以不必了解每个算法的细节，直接使用已有类完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据搭建案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例分析及方案设计实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据，及算法章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据挖掘十大算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageRank K,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBM SPSS数据分析与挖掘实战案例精粹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析实践类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建模 案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBM spss 数据分析工具及使用教程，大量的案例操作即使用方法，将数据分析的算法通过已实现的工具在实际中的应用。 可以加入简历中体现先应用数据分析的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据架构和算法实现之路：电商系统的技术实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据算法混编书， 书中介绍了10种基本数据发掘算法，虽然有些已经过时，但是机器学习的基础， 但是始终专业名词太多，示例解释描述性不强，可当辅助材料使用，但基于一定算法基础情况下参考，理解原理， 大部分软件包已经实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数据算法 Hadoop Spark大数据处理技巧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据挖掘算法基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据挖掘算法笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规算法，推荐， 协同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见大数据算法的过程解释和MR或Spark的具体类实现，对初级阶段大数据分析非常有好处，可以不必了解每个算法的细节，直接使用已有类完成任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据架构和算法实现之路：电商系统的技术实战</t>
-  </si>
-  <si>
-    <t>大数据搭建案例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案例分析及方案设计实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据，及算法章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据挖掘十大算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageRank K,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据算法混编数， 书中介绍了10种基本数据发掘算法，虽然有些已经过时，但是机器学习的基础， 但是始终专业名词太多，示例解释描述性不强，可当辅助材料使用，但基于一定算法基础情况下参考，理解原理， 大部分软件包已经实现</t>
-  </si>
-  <si>
-    <t>IBM SPSS数据分析与挖掘实战案例精粹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析实践类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建模 案例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBM spss 数据分析工具及使用教程，大量的案例操作即使用方法，将数据分析的算法通过已实现的工具在实际中的应用。 可以加入简历中体现先应用数据分析的经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1236,7 +1238,7 @@
         <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
@@ -1265,10 +1267,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
         <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1280,16 +1282,16 @@
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15">
         <v>20181120</v>
       </c>
       <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
         <v>76</v>
-      </c>
-      <c r="K15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -1297,13 +1299,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1321,10 +1323,10 @@
         <v>20181120</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1332,10 +1334,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -1350,10 +1352,10 @@
         <v>20181122</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1361,10 +1363,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -1376,16 +1378,16 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I18">
         <v>20181122</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
